--- a/aave与pledge总结.xlsx
+++ b/aave与pledge总结.xlsx
@@ -1388,7 +1388,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="20.4" outlineLevelCol="6"/>

--- a/aave与pledge总结.xlsx
+++ b/aave与pledge总结.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="12480"/>
+    <workbookView windowWidth="29400" windowHeight="12520"/>
   </bookViews>
   <sheets>
     <sheet name="aave和pledge总结" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
   <si>
     <t>特性维度</t>
   </si>
@@ -59,37 +59,161 @@
     <t>去中心化稳定币系统</t>
   </si>
   <si>
-    <t>基础业务</t>
-  </si>
-  <si>
-    <t>提供资金赚取利息、抵押资产获得资金</t>
-  </si>
-  <si>
-    <t>抵押资产获得DAI稳定币</t>
-  </si>
-  <si>
-    <t>提供流动性池</t>
-  </si>
-  <si>
-    <t>其他特性</t>
-  </si>
-  <si>
-    <t>超额抵押、清算机制</t>
-  </si>
-  <si>
-    <t>AMM自动做商</t>
-  </si>
-  <si>
-    <t>利息方式</t>
-  </si>
-  <si>
-    <t>固定利率、可变利率</t>
-  </si>
-  <si>
-    <t>固定利率、固定期限</t>
-  </si>
-  <si>
-    <t>独特业务</t>
+    <t>版本迭代</t>
+  </si>
+  <si>
+    <t>V1：基础借款、存款功能；P2P -&gt; 流动性池模式
+V2：引入4项治理，分别是表决权与提案权分离、投票策略、多个执行实体、守护者。
+V3：跨链借贷、闪电贷、可变利率、引入GHO稳定币等。
+V4：计划采用权限架构，引入统一流动曾，模糊控制利率，GHO原生支持等。</t>
+  </si>
+  <si>
+    <t>核心机制</t>
+  </si>
+  <si>
+    <t>1、提供资金赚取利息
+2、超额抵押资产获得资金
+3、清算机制降低存钱人和平台风险</t>
+  </si>
+  <si>
+    <t>抵押资产锻造DAI稳定币</t>
+  </si>
+  <si>
+    <t>1、提供流动性池赚取利息
+2、支付资金(如ETH)获取代币(如USDT)</t>
+  </si>
+  <si>
+    <t>利息类型</t>
+  </si>
+  <si>
+    <t>可变利率、稳定利率</t>
+  </si>
+  <si>
+    <t>固定利率</t>
+  </si>
+  <si>
+    <t>利息变更方式</t>
+  </si>
+  <si>
+    <t>借款、质押、存储、赎回、还款、清算时都会进行利息变更</t>
+  </si>
+  <si>
+    <t>不变</t>
+  </si>
+  <si>
+    <t>利息变更算法</t>
+  </si>
+  <si>
+    <t>双线动态利率（根据利用率）</t>
+  </si>
+  <si>
+    <t>计息方式</t>
+  </si>
+  <si>
+    <t>借款：区块数复利计息
+存款：区块数单利计息</t>
+  </si>
+  <si>
+    <t>区块链时间戳复利</t>
+  </si>
+  <si>
+    <t>区块复利计息</t>
+  </si>
+  <si>
+    <t>区块链时间戳</t>
+  </si>
+  <si>
+    <t>清算机制</t>
+  </si>
+  <si>
+    <t>清算者购买借款者的抵押资产，偿还借款者的债务，清算着得到抵押资产加清算奖励，借款者债务减少。
+清算条件：
+健康因子 = 所有抵押品价值 * 清算阈值 / 总债务价值（本金 + 利息）
+健康因子 &lt; 1时，达到清算条件。
+清算程度：
+健康因子大于1时即可</t>
+  </si>
+  <si>
+    <t>价格渠道</t>
+  </si>
+  <si>
+    <t>Chainlink</t>
+  </si>
+  <si>
+    <t>用户订单薄</t>
+  </si>
+  <si>
+    <t>恒定乘积做商自动计算</t>
+  </si>
+  <si>
+    <t>流动性/订单薄</t>
+  </si>
+  <si>
+    <t>流动性池</t>
+  </si>
+  <si>
+    <t>订单薄</t>
+  </si>
+  <si>
+    <t>存取便利性</t>
+  </si>
+  <si>
+    <t>随时</t>
+  </si>
+  <si>
+    <t>固定期限</t>
+  </si>
+  <si>
+    <t>治理代币</t>
+  </si>
+  <si>
+    <t>AAVE</t>
+  </si>
+  <si>
+    <t>PLGR</t>
+  </si>
+  <si>
+    <t>COMP</t>
+  </si>
+  <si>
+    <t>MKR</t>
+  </si>
+  <si>
+    <t>Uni</t>
+  </si>
+  <si>
+    <t>治理代币作用</t>
+  </si>
+  <si>
+    <t>1、参与协议治理
+2、质押获取利润分红</t>
+  </si>
+  <si>
+    <t>协议治理、激励</t>
+  </si>
+  <si>
+    <t xml:space="preserve">协议治理 </t>
+  </si>
+  <si>
+    <t>1、协议治理
+2、稳定费收益
+3、系统坏账的最后偿付人</t>
+  </si>
+  <si>
+    <t>平台收入来源</t>
+  </si>
+  <si>
+    <t>1、普通借款支付的利息
+2、闪电贷支付的费用</t>
+  </si>
+  <si>
+    <t>借贷人支付的利息</t>
+  </si>
+  <si>
+    <t>借贷人支付的稳定费</t>
+  </si>
+  <si>
+    <t>差异化</t>
   </si>
   <si>
     <t>1、闪电贷
@@ -101,97 +225,16 @@
 2、杠杆交易</t>
   </si>
   <si>
-    <t>流动性/订单薄</t>
-  </si>
-  <si>
-    <t>流动性池</t>
-  </si>
-  <si>
-    <t>订单薄点对点</t>
-  </si>
-  <si>
-    <t>存取便利性</t>
-  </si>
-  <si>
-    <t>随时</t>
-  </si>
-  <si>
-    <t>固定期限</t>
-  </si>
-  <si>
-    <t>治理代币</t>
-  </si>
-  <si>
-    <t>AAVE</t>
-  </si>
-  <si>
-    <t>PLGR</t>
-  </si>
-  <si>
-    <t>COMP</t>
-  </si>
-  <si>
-    <t>MKR</t>
-  </si>
-  <si>
-    <t>Uni</t>
-  </si>
-  <si>
-    <t>治理代币作用</t>
-  </si>
-  <si>
-    <t>投票、激励、风险保障</t>
-  </si>
-  <si>
-    <t>协议治理、激励</t>
-  </si>
-  <si>
-    <t xml:space="preserve">协议治理 </t>
-  </si>
-  <si>
-    <t>协议治理
-稳定费收益
-系统坏账的最后偿付人</t>
-  </si>
-  <si>
-    <t>稳定币机制</t>
-  </si>
-  <si>
-    <t xml:space="preserve">支持多种稳定币作为借贷资产 </t>
-  </si>
-  <si>
-    <t>创建并管理DAI（与美元软锚定）</t>
-  </si>
-  <si>
-    <t>计息方式</t>
-  </si>
-  <si>
-    <t>区块链时间戳</t>
-  </si>
-  <si>
-    <t>区块数</t>
-  </si>
-  <si>
-    <t>收入来源</t>
-  </si>
-  <si>
-    <t>普通借贷支付的利息
-闪电贷支付的费用</t>
-  </si>
-  <si>
-    <t>借贷人支付的利息</t>
-  </si>
-  <si>
-    <t>借贷人支付的稳定费</t>
+    <t>铸造稳定币</t>
   </si>
   <si>
     <t>优势</t>
   </si>
   <si>
-    <t>经过市场检验，安全系数高
-流动性规模庞大，适合散户和机构需求
-丰富的获利方式，自动化闪电贷套利、存款获得利息
-抵押品互换可以降低清算风险</t>
+    <t>1、经过市场检验，安全系数高
+2、流动性规模庞大，适合散户和机构需求
+3、丰富的获利方式，自动化闪电贷套利、存款获得利息
+4、抵押品互换可以降低清算风险</t>
   </si>
   <si>
     <t>固定利率带来的低风险，稳定收益，适合新手</t>
@@ -200,14 +243,15 @@
     <t>缺点</t>
   </si>
   <si>
-    <t>智能合约漏洞风险
-清算风险
-学习成本高，如闪电贷需要懂自动化获利（写solidity代码）</t>
-  </si>
-  <si>
-    <t>智能合约漏洞风险
-清算风险
-客户吸引力不足（稳定收益）</t>
+    <t>1、智能合约漏洞风险
+2、清算风险
+3、网络/桥接风险
+4、学习成本高，如闪电贷需要懂自动化获利（写solidity代码）</t>
+  </si>
+  <si>
+    <t>1、智能合约漏洞风险
+2、清算风险
+3、客户单一吸引力不足（稳定收益）</t>
   </si>
 </sst>
 </file>
@@ -380,18 +424,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -712,7 +750,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -736,16 +774,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -754,100 +792,91 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1385,32 +1414,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="20.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="20.5384615384615" style="1" customWidth="1"/>
-    <col min="2" max="2" width="106.615384615385" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.4230769230769" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.9230769230769" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.5384615384615" style="1" customWidth="1"/>
-    <col min="6" max="6" width="40.9615384615385" style="1" customWidth="1"/>
-    <col min="7" max="7" width="40.9230769230769" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.3846153846154" style="1"/>
+    <col min="2" max="2" width="37.3461538461538" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.2980769230769" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.4807692307692" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.1538461538462" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.8846153846154" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27.3942307692308" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="20.5384615384615" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" ht="21" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -1426,14 +1455,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" ht="41" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -1449,236 +1478,252 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" ht="41" spans="1:7">
+    <row r="3" ht="266" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="4" t="s">
+    </row>
+    <row r="4" ht="143" spans="1:7">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" ht="21" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1" t="s">
+    <row r="5" ht="21" spans="1:3">
+      <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" ht="21" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="6" ht="41" spans="1:3">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="6" ht="62" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="7" ht="21" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="E6" s="4" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="7" ht="21" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    <row r="8" ht="41" spans="1:7">
+      <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" ht="21" spans="1:7">
-      <c r="A8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>27</v>
+      <c r="E8" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" ht="286" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" ht="41" spans="1:7">
+      <c r="A10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" ht="62" spans="1:6">
-      <c r="A10" s="1" t="s">
+    <row r="11" ht="21" spans="1:6">
+      <c r="A11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="F11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" ht="21" spans="1:7">
+      <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="B12" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="11" ht="21" spans="1:7">
-      <c r="A11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="13" ht="21" spans="1:7">
+      <c r="A13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="B13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>41</v>
+      <c r="C13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>44</v>
+    <row r="14" ht="82" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="13" ht="41" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>49</v>
+    <row r="15" ht="41" spans="1:6">
+      <c r="A15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="14" ht="82" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>52</v>
+    <row r="16" ht="62" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="15" ht="62" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>55</v>
+    <row r="17" ht="143" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" ht="123" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/aave与pledge总结.xlsx
+++ b/aave与pledge总结.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29400" windowHeight="12520"/>
+    <workbookView windowWidth="29400" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="aave和pledge总结" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
   <si>
     <t>特性维度</t>
   </si>
@@ -104,7 +104,10 @@
     <t>利息变更算法</t>
   </si>
   <si>
-    <t>双线动态利率（根据利用率）</t>
+    <t>分段线性利率模型</t>
+  </si>
+  <si>
+    <t>利息算法</t>
   </si>
   <si>
     <t>计息方式</t>
@@ -114,10 +117,10 @@
 存款：区块数单利计息</t>
   </si>
   <si>
-    <t>区块链时间戳复利</t>
-  </si>
-  <si>
-    <t>区块复利计息</t>
+    <t>区块链时间戳单利</t>
+  </si>
+  <si>
+    <t>按照每15秒出一个区块进行复利</t>
   </si>
   <si>
     <t>区块链时间戳</t>
@@ -1414,10 +1417,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.3846153846154" defaultRowHeight="20.4" outlineLevelCol="6"/>
@@ -1455,7 +1458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="41" spans="1:7">
+    <row r="2" ht="21" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1486,7 +1489,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="143" spans="1:7">
+    <row r="4" ht="123" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1531,7 +1534,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" ht="21" spans="1:3">
+    <row r="7" ht="21" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>22</v>
       </c>
@@ -1541,189 +1544,197 @@
       <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" ht="41" spans="1:7">
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" ht="21" spans="1:1">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="9" ht="41" spans="1:7">
+      <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" ht="286" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="F9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" ht="286" spans="1:3">
+      <c r="A10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" ht="41" spans="1:7">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" ht="41" spans="1:7">
+      <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11" ht="21" spans="1:6">
-      <c r="A11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="12" ht="21" spans="1:6">
+      <c r="A12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" ht="21" spans="1:7">
-      <c r="A12" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" ht="21" spans="1:7">
       <c r="A13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="D13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" ht="21" spans="1:7">
+      <c r="A14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="14" ht="82" spans="1:6">
-      <c r="A14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="15" ht="82" spans="1:6">
+      <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" ht="41" spans="1:6">
-      <c r="A15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="16" ht="41" spans="1:6">
+      <c r="A16" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" ht="62" spans="1:6">
-      <c r="A16" s="1" t="s">
+      <c r="D16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="1" t="s">
+    </row>
+    <row r="17" ht="62" spans="1:6">
+      <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="17" ht="143" spans="1:3">
-      <c r="A17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="1" t="s">
+    </row>
+    <row r="18" ht="143" spans="1:3">
+      <c r="A18" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="18" ht="123" spans="1:3">
-      <c r="A18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="1" t="s">
+    </row>
+    <row r="19" ht="123" spans="1:3">
+      <c r="A19" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>65</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
